--- a/biology/Zoologie/Caria_trochilus/Caria_trochilus.xlsx
+++ b/biology/Zoologie/Caria_trochilus/Caria_trochilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caria trochilus est une espèce de papillons de la famille des Riodinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caria trochilus a été décrit par Wilhelm Ferdinand Erichson en 1849[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria trochilus a été décrit par Wilhelm Ferdinand Erichson en 1849,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 janvier 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 janvier 2021) :
 Caria trochilus arete (C. &amp; R. Felder, 1861) ; au Brésil et au Pérou
 Caria trochilus trochilus Erichson, 1849 ; en Guyane et au Guyana</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caria trochilus est un papillon d'une envergure autour de 27 mm à aile antérieure à bord costal bossu, de couleur marron, marqué de vert sur le corps, dans l'aire basale et dans l'aire discale des ailes antérieures côté bord costal et à l'angle anal des ailes postérieures[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria trochilus est un papillon d'une envergure autour de 27 mm à aile antérieure à bord costal bossu, de couleur marron, marqué de vert sur le corps, dans l'aire basale et dans l'aire discale des ailes antérieures côté bord costal et à l'angle anal des ailes postérieures.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caria trochilus est présent au Brésil, au Guyana, en Guyane et au Pérou[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria trochilus est présent au Brésil, au Guyana, en Guyane et au Pérou.
 </t>
         </is>
       </c>
